--- a/mau_du_lieu_xuat_hang.xlsx
+++ b/mau_du_lieu_xuat_hang.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDS-GS25_02\Downloads\ban_trinh_chieu_tu_dong_fullscreen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Chuyến</t>
   </si>
@@ -25,68 +30,112 @@
     <t>Giờ xuất</t>
   </si>
   <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.5 Ton</t>
+  </si>
+  <si>
+    <t>1 Ton</t>
+  </si>
+  <si>
+    <t>1.9 Ton</t>
+  </si>
+  <si>
+    <t>Chờ xuất</t>
+  </si>
+  <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Tình trạng</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>Shop A</t>
-  </si>
-  <si>
-    <t>Shop B</t>
-  </si>
-  <si>
-    <t>Shop C</t>
-  </si>
-  <si>
-    <t>Shop D</t>
-  </si>
-  <si>
-    <t>Shop E</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>120 EA</t>
-  </si>
-  <si>
-    <t>80 EA</t>
-  </si>
-  <si>
-    <t>150 EA</t>
-  </si>
-  <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Đang chờ</t>
-  </si>
-  <si>
-    <t>Hủy</t>
+    <t xml:space="preserve"> Nguyễn Hữu Huân </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hàng Dầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hà Trung</t>
+  </si>
+  <si>
+    <t>ĐH Thủy Lợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mipec</t>
+  </si>
+  <si>
+    <t>Nguyễn Sơn</t>
+  </si>
+  <si>
+    <t>Duy Tân</t>
+  </si>
+  <si>
+    <t>KDT Văn Phú - Hà Đông</t>
+  </si>
+  <si>
+    <t>CT1 Ngô Thì Nhậm Hà Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyline Hoàng Cầu </t>
+  </si>
+  <si>
+    <t>ĐH Hà Nội</t>
+  </si>
+  <si>
+    <t>Ngu Xa - Ha Noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đào Duy Anh</t>
+  </si>
+  <si>
+    <t>Ngụy Như Kontum</t>
+  </si>
+  <si>
+    <t>04:00 PM</t>
+  </si>
+  <si>
+    <t>Nhân viên có sinh nhật trong tháng 8: Nguyễn Thị Hồng Nhạn | Đỗ Đăng Nghĩa | Nguyễn Thành Nam</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>02:00 PM</t>
+  </si>
+  <si>
+    <t>03:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +151,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF081B3A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,20 +209,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 7" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +334,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +369,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,116 +545,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="9"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f>TEXT(C2,"hh:mm AM/PM")</f>
+        <v>11:00 AM</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G15" si="0">TEXT(C3,"hh:mm AM/PM")</f>
+        <v>11:00 AM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>11:00 AM</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01:00 PM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01:00 PM</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>01:00 PM</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>02:00 PM</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>02:00 PM</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>02:00 PM</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03:00 PM</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>03:00 PM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04:00 PM</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04:00 PM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>04:00 PM</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15">
+      <formula1>"1 Ton, 1.9 Ton, 2.5 Ton"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mau_du_lieu_xuat_hang.xlsx
+++ b/mau_du_lieu_xuat_hang.xlsx
@@ -30,9 +30,6 @@
     <t>Giờ xuất</t>
   </si>
   <si>
-    <t>Tình trạng</t>
-  </si>
-  <si>
     <t>Thông báo</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>03:00 PM</t>
+  </si>
+  <si>
+    <t>Tình trạng 1</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,8 +558,8 @@
     <col min="2" max="2" width="20.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="9"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -575,33 +575,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="9" t="str">
         <f>TEXT(C2,"hh:mm AM/PM")</f>
@@ -610,19 +610,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G15" si="0">TEXT(C3,"hh:mm AM/PM")</f>
@@ -631,19 +631,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -652,19 +652,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -673,19 +673,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -694,19 +694,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -715,19 +715,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -736,19 +736,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -757,19 +757,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -778,19 +778,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -799,19 +799,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -820,19 +820,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -841,19 +841,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -862,19 +862,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" si="0"/>
